--- a/biology/Zoologie/Anuroctonus_pococki/Anuroctonus_pococki.xlsx
+++ b/biology/Zoologie/Anuroctonus_pococki/Anuroctonus_pococki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anuroctonus pococki est une espèce de scorpions de la famille des Anuroctonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie et au Mexique en Basse-Californie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie et au Mexique en Basse-Californie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype d'Anuroctonus pococki pococki mesure 57,50 mm et la femelle 57,30 mm, les mâles mesurent de 52,25 à 66,15 mm. Le mâle holotype d'Anuroctonus pococki bajae mesure 51,20 mm et la femelle 38,75 mm, les mâles mesurent de 42,70 à 56,55 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype d'Anuroctonus pococki pococki mesure 57,50 mm et la femelle 57,30 mm, les mâles mesurent de 52,25 à 66,15 mm. Le mâle holotype d'Anuroctonus pococki bajae mesure 51,20 mm et la femelle 38,75 mm, les mâles mesurent de 42,70 à 56,55 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (28/07/2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (28/07/2023) :
 Anuroctonus pococki bajae Soleglad &amp; Fet, 2004
 Anuroctonus pococki pococki Soleglad &amp; Fet, 2004</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Soleglad et Fet en 2004.
 </t>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Innes Pocock[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reginald Innes Pocock.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Soleglad &amp; Fet, 2004 : « The systematics of the scorpion subfamily Uroctoninae (Scorpiones: Chactidae). » Revista Ibérica de Aracnología, vol. 10, p. 81−128 (texte intégral).</t>
         </is>
